--- a/BitcoinPriceCalculator/Models/BitcoinDatePriceBRL.xlsx
+++ b/BitcoinPriceCalculator/Models/BitcoinDatePriceBRL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55575538869\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\repositorios\Luan\BitcoinPriceCalculator\BitcoinPriceCalculator\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15673,7 +15673,7 @@
   <dimension ref="A1:B5103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
